--- a/Python/Comments.xlsx
+++ b/Python/Comments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeJiWon\Desktop\OpenBCI\AAD\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hy-kist\OpenBCI\AAD\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,80 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">본 실험에선
-양쪽 서로 다른 이야기를 들으며,
-한쪽 이야기에만 집중을 하는
-과제를 수행하게 될 것입니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽과 오른쪽 각각 다른 이야기를 듣게 될 것이며,
-집중을 해야하는 방향은 이야기 시작 전
-해당 방향에서의 2번의 Beep 소리와 
-모니터 화면으로 제시해드립니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>음성이 제시되는 동안은
-모니터에 제시되는 기호에 시선을 집중하여 주시고
-몸과 눈의 움직임을 최소화하여 주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제가 나오는 간격은 일정하지 않으며,
-한쪽 이야기 당 2문제씩 총 4문제를 푸시게 될 것입니다.
-실험 중 문제는 총 8번 제시됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>과제는 한번 진행되며,
-소요시간은 대략 35분 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>집중을 해야하는 방향은 바뀌지 않으며,
-30분 분량의 이야기를 
-1분씩 30번에 걸쳐 듣게 될 것입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1분 청취 후 3초 가량 정적이 있으며
-간혈적으로 청취중인 두 이야기에 관한
-객관식 문제를 푸시게 될 것입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정답은 키보드로 입력해주시면 됩니다.
-최대한 집중하여 문제를 맞춰주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">그럼, 실험을 시작하겠습니다.
-궁금한게 있으시면 질문하여주세요.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-스페이스바를 누르면 3초뒤 시작됩니다.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세션 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>final</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세션 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세션 설명(T1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,51 +94,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세션 설명(tr1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명2(tr1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명3(tr1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명4(tr1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명(tr2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명2(tr2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명3(tr2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명4(tr2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명(tr3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명2(tr3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명3(tr3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명4(tr3)</t>
+    <t>세션 설명(test1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명2(test1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명3(test1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명4(test1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명(test2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명2(test2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명3(test2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명4(test2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명(test3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명2(test3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명3(test3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명4(test3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">실험 설명1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험 설명2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험 설명3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 설명4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,14 +187,6 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -559,7 +503,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -567,9 +511,9 @@
     <col min="2" max="2" width="43.59765625" customWidth="1"/>
     <col min="3" max="3" width="14.296875" customWidth="1"/>
     <col min="4" max="4" width="22.3984375" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" customWidth="1"/>
+    <col min="5" max="5" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="18.296875" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -577,166 +521,154 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="121.8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="121.8" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="104.4" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="78.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Python/Comments.xlsx
+++ b/Python/Comments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hy-kist\OpenBCI\AAD\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeJiWon\Desktop\OpenBCI\AAD\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,157 +24,2155 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>train2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>train1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습 시행이 끝났습니다.
+아직 실험 과정이 이해되지 않으신다면 담당자에게 설명을 요청해주세요.
+'스페이스 바'를 눌러 다음 페이지로 넘겨주세요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이제 본 시행에 대한 설명을 드리겠습니다.
+참여자께서는 실험 동안 30 쌍의 이야기를 총 5번의 세션에 걸쳐 듣게 됩니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>눌러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>넘겨주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">각 세션 별로 주의를 기울여야 하는 방향이 다릅니다.
+세션 1에서는 "왼쪽"으로 제시되는 이야기에 집중하셔야 합니다.
+세션 2에서는 "오른쪽"으로 제시되는 이야기에 집중하셔야 합니다.
+세션 3에서는 3번 "왼쪽"으로 제시되는 이야기에 집중한 이후,
+3번 "오른쪽으로 제시되는 이야기에 집중하셔야 합니다. 
+각 세션에 대한 설명은 각 세션이 시작하기 전 다시 한 번 제공됩니다. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>눌러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>넘겨주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 세션 별로 주의를 기울여야 하는 방향이 다릅니다.
+세션 4에서는 각 이야기 쌍 별로 집중해야 햐는 방향이 "무작위"로 바뀝니다.
+세션 5에서는 이야기가 제시되는 방향이 도중에 바뀝니다.
+즉, 특정 시점 이후로 왼쪽에서 제시되던 이야기는 오른쪽에서,
+ 오른쪽에서 제시되던 이야기는 왼쪽에서 제시됩니다.
+이야기가 제시되는 방향이 바뀌더라도 참여자분께서는 
+기존에 듣던 이야기와 같은 이야기에 계속 집중해주시면 됩니다.
+각 세션에 대한 설명은 각 세션이 시작하기 전 다시 한 번 제공됩니다. 
+'스페이스 바'를 눌러 다음 페이지로 넘겨주세요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">세션 사이에는 쉬는 시간이 제공됩니다. (총 4번)
+원하는 만큼 쉬신 뒤, 다음 세션을 진행하시면 됩니다.
+찌뿌둥하시더라도 세션 중간에는 최대한 움직임을 자제해주시고,
+쉬는 시간을 이용하여 몸을 풀어주시면 감사하겠습니다.
+본 실험에 소요되는 시간은 약 40~45분입니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>눌러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>넘겨주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이제 실험에 대한 설명이 끝났습니다.
+준비가 되시면, '스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 바'를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 눌러 다음으로 진행하시면 됩니다.
+혹시나 실험 과정에 대해서 이해가 되지 않는 부분이 있거나,
+궁금한 사항이 있으시면 담당자에게 설명을 요청하시기 바랍니다.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">세션 1
+세션 1에서 참여자께서는 "왼쪽"으로 제시되는 이야기에 집중하여야 합니다.
+오른쪽으로 제시되는 이야기는 무시하시면 됩니다.
+이에 따라 각 이야기 쌍이 제시되기 전, 
+왼쪽 귀에는 '삐- 삐-'하는 신호음이 제공되며,
+동시에 화면 중앙에는 주의를 왼쪽 방향을 가리키는 화살표 '&lt;&lt;&lt;' 가 제시됩니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>눌러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>넘겨주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 1이 끝났습니다.
+쉬는 시간입니다.
+충분히 휴식을 취한 뒤, '스페이스 바'를 눌러 다음으로 진행해주세요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 2가 끝났습니다.
+쉬는 시간입니다.
+충분히 휴식을 취한 뒤, '스페이스 바'를 눌러 다음으로 진행해주세요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">세션 3
+세션 3에서는 총 6쌍의 이야기가 제시되며, 예상 소요 시간은 약 7분입니다.
+참여자분께서는 6개의 이야기 쌍 중 앞 3개 (1,2,3 번)는 "왼쪽"에,
+뒤 3개 (4,5,6 번)는 "오른쪽"에 집중해주셔야 합니다.
+'스페이스 바'를 눌러 다음 페이지로 넘겨주세요. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">세션 5
+세션 5를 예를 들어서 한 번 더 설명하면, 아래와 같습니다.
+왼쪽 귀에 신호음이 들리고, 모니터 화면에 왼쪽 화살표 '&lt;&lt;&lt;' 가 제시되는 경우,
+참여자께서는 우선 오른쪽으로 제시된 이야기는 무시하고,
+ 왼쪽으로 제시된 이야기에 집중을 해주시면 됩니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 눌러 다음 페이지로 넘겨주세요. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>intro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>train2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>train1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>final</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명(T1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명(T2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명2(T2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명3(T2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명4(T2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명(test1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명2(test1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명3(test1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명4(test1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명(test2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명2(test2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명3(test2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명4(test2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명(test3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명2(test3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명3(test3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명4(test3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">실험 설명1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실험 설명2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>실험 설명3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 설명4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t xml:space="preserve">참여자분께서는 본 실험에서 양쪽 귀에 각각 다른 이야기를 듣게 됩니다.
+이때 참여자분께서는 양쪽 귀에 들리는 이야기 중 
+하나의 이야기에만 주의를 기울여주셔야 합니다.
+연습 시행을 제외하고, 참여자분께서 본 실험 동안 집중해서 듣는 이야기는 
+내용적으로 이어져 있으니 참고 바랍니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 눌러 다음 페이지로 넘겨주세요.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">두 가지 신호를 통해 주의를 기울여야 할 방향을 확인하실 수 있습니다.
+양쪽 귀에 서로 다른 이야기가 제시되기 전,
+주의를 기울여햐 하는 방향에 '삐- 삐-'하는 신호음이 들릴 것입니다.
+동시에 화면에는 주의를 기울여야 하는 방향이 화살표로 표시될 것입니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 눌러 다음 페이지로 넘겨주세요.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">참여자분께서는 제시되는 문제들에 대해서 
+적어도 80% 이상의 정답률을 달성해주셔야 합니다.
+정답률 80% 미만을 달성하신 분의 뇌파 데이터는 
+이후 분석 과정에 포함될 수 없습니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 눌러 다음 페이지로 넘겨주세요.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요. 실험에 참여해 주셔서 감사합니다.
+본 실험에 앞서 실험이 어떻게 진행되는지 설명드리겠습니다.
+'스페이스 바'를 눌러 다음 페이지로 넘겨주세요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 1
+'스페이스 바'를 누르시면 세션 1 시작합니다.
+준비되시면 '스페이스 바'를 눌러 세션 1을 시작해주세요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 1
+세션 1에서는 총 7쌍의 이야기가 제시되며, 
+소요시간은 약 8-9분 정도입니다.
+음성 자극이 제시되는 동안은 몸의 움직임을 가능한 최소화해주시고,
+시선은 화면 중앙에 고정해주시길 바랍니다.
+'스페이스 바'를 눌러 다음 페이지로 넘겨주세요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">연습 시행에서는 약 13초 길이의 이야기 쌍이 제시되었으나,
+본 시행에서는 그보다 훨씬 긴 약 60초 길이의 이야기 쌍이 제시됩니다.
+각 이야기 쌍이 끝난 후 제시되는 문제의 수도 더 많습니다.
+집중한 이야기와 집중 안 한 이야기에 대해서 각각 2문제씩, 
+총 4문제가 제시됩니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>눌러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>넘겨주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">세션 2
+세션 2에서 참여자께서는 "오른쪽"으로 제시되는 이야기에 집중하여야 합니다.
+왼쪽으로 제시되는 이야기는 무시하시면 됩니다.
+이에 따라 각 이야기 쌍이 제시되기 전, 
+오른쪽 귀에는 '삐- 삐-'하는 신호음이 제공되며,
+동시에 화면 중앙에는 주의를 오른쪽 방향을 가리키는 화살표 '&gt;&gt;&gt;' 가 제시됩니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'스페이스 바'를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 눌러 다음 페이지로 넘겨주세요. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">세션 3
+헷갈릴 수 있으니, 각 이야기 쌍이 제시되기 전 제공되는 
+"신호음"과 "화살표의 방향"을 잘 확인해주시기 바랍니다.
+음성 자극이 제시되는 동안은 몸의 움직임을 가능한 최소화해주시고,
+시선은 화면 중앙에 고정해주시길 바랍니다.
+'스페이스 바'를 눌러 다음 페이지로 넘겨주세요. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 3
+'스페이스 바'를 누르시면 세션 3 시작합니다.
+준비되시면 '스페이스 바'를 눌러 세션 3을 시작해주세요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 3이 끝났습니다.
+쉬는 시간입니다.
+충분히 휴식을 취한 뒤, '스페이스 바'를 눌러 다음으로 진행해주세요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">세션 4
+세션 4에서는 참여자께서 집중하여야 하는 이야기의 방향이 "무작위"로 결정됩니다.
+각 이야기 쌍이 제시되기 전 제공되는 
+"신호음"과 "화살표의 방향"을 잘 확인해주시기 바랍니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>눌러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>다음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>넘겨주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">세션 4
+세션 4에서는 총 6쌍의 이야기가 제시되며, 
+소요시간은 약 7분 정도입니다.
+음성 자극이 제시되는 동안은 몸의 움직임을 가능한 최소화해주시고,
+시선은 화면 중앙에 고정해주시길 바랍니다.
+'스페이스 바'를 눌러 다음 페이지로 넘겨주세요. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 4
+'스페이스 바'를 누르시면 세션 4 시작합니다.
+준비되시면 '스페이스 바'를 눌러 세션 4을 시작해주세요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 4가 끝났습니다.
+쉬는 시간입니다.
+충분히 휴식을 취한 뒤, '스페이스 바'를 눌러 다음으로 진행해주세요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">세션 5
+세션 5에서는 세션 4와 마찬가지로 참여자께서 집중하여야 하는 이야기의 방향이 
+"무작위"로 결정됩니다.
+추가로 세션 5에서는 도중에 이야기가 제시되는 방향이 바뀝니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 눌러 다음 페이지로 넘겨주세요. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">세션 5
+이야기가 제시되는 방향이 바뀌는 시점은 화면의 화살표를 통해 제공됩니다.
+예를 들어, 화살표의 방향은 음성 자극이 제시되는 도중 반대로 바뀌게 되는데,
+그 순간을 기점으로 기존에 왼쪽에서 제시되던 이야기는 오른쪽에서,
+오른쪽에서 제시되던 이야기는 왼쪽에서 제시됩니다.
+참여자분께서는 이야기가 제시되는 방향이 바뀌더라도,
+기존에 집중하여 듣던 이야기와 동일한 이야기에 계속 집중해주시면 됩니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 눌러 다음 페이지로 넘겨주세요. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">세션 5
+한편, 화살표의 방향이 바뀌기 전,
+ 화면에 떠 있는 기호의 개수가 하나씩 줄어들게 됩니다.
+화살표에 포함된 기호가 하나만 남은 직후에, 화살표 방향이 바뀌에 됩니다.
+예를 들어, 왼쪽에서 오른쪽으로 화살표의 방향이 바뀔 때,
+ 왼쪽 화살표에 포함된 기호의 수가 아래와 같이 하나씩 줄어든 뒤,
+'&lt;&lt;&lt;',   '&lt;&lt;',   '&lt;' 
+오른쪽 화살표  '&gt;&gt;&gt;' 로 바뀌게 됩니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 눌러 다음 페이지로 넘겨주세요. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">세션 5
+한편, 어느 순간 왼쪽 화살표의 개수가 하나씩 줄어들기 시작합니다.
+'&lt;&lt;&lt;',   '&lt;&lt;',   '&lt;' 
+왼쪽 화살표가 하나만 남은 후 '&lt;' 에는 곧 화살표의 방향이 오른쪽으로 바뀌게 됩니다. '&gt;&gt;&gt;'
+이 순간을 기점으로 기존에 왼쪽에서 제시되던 이야기는 오른쪽에서,
+반대로 오른쪽에서 제시되던 이야기는 왼쪽에서 제시됩니다.
+이때 참여자분께서는 주의의 방향을 바꾸어 기존에 집중하고 있던 이야기와 동일한 이야기인 '오른쪽' 이야기에 집중하시면 됩니다.
+마찬가지로 왼쪽 이야기는 무시하시면 됩니다.
+화살표의 방향이 바뀔 때, 별도의 신호음은 제공되지 않으니 주의하셔야 합니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">를 눌러 다음 페이지로 넘겨주세요. </t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">세션 5
+세션 5에서는 총 4쌍의 이야기가 제시되며, 소요시간은 약 5분입니다.
+음성 자극이 제시되는 동안은 몸의 움직임을 가능한 최소화해주시고,
+시선은 화면 중앙에 고정해주시길 바랍니다.
+'스페이스 바'를 눌러 다음 페이지로 넘겨주세요. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 5
+'스페이스 바'를 누르시면 세션 5 시작합니다.
+준비되시면 '스페이스 바'를 눌러 세션 5를 시작해주세요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 2
+'스페이스 바'를 누르시면 세션 2 시작합니다.
+준비되시면 '스페이스 바'를 눌러 세션 2를 시작해주세요.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">세션 2
+세션 2에서는 총 7쌍의 이야기가 제시되며, 
+소요시간은 약 8-9분 정도입니다.
+음성 자극이 제시되는 동안은 몸의 움직임을 가능한 최소화해주시고,
+시선은 화면 중앙에 고정해주시길 바랍니다.
+'스페이스 바'를 눌러 다음 페이지로 넘겨주세요. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">예를 들어, 왼쪽에 제시되는 이야기에 주의를 기울여야 하는 경우,
+이야기 쌍이 제시되기 전, 왼쪽 귀에 '삐- 삐-'라는 신호음이 들릴 것입니다.
+동시에 모니터 화면 중앙에는 왼쪽 방향을 가리키는 화살표 '&lt;&lt;&lt;' 가 제시됩니다.
+이 경우 참여자 분께서는 오른쪽으로 들리는 이야기는 무시하시고,
+왼쪽 귀로 들리는 이야기만 집중해서 들어주시면 되겠습니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 눌러 다음 페이지로 넘겨주세요.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">삐- 삐-'하는 신호음과 화살표가 제시되기 전,
+화면 중앙에는 시선 고정점으로 '+'가 제시됩니다.
+시선 고정점이 사라진 직후, 신호음과 화살표가 제시됩니다.
+참여자분께서는 이후 이야기를 집중하여 청취하시는 동안
+최대한 몸의 움직임을 최소화해주시고, 시선은 화면 중앙에 고정해주시기 바랍니다.
+'스페이스 바'를 눌러 다음 페이지로 넘겨주세요. </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">참여자분께서 실제로 이야기에 잘 집중하셨는지 파악하기 위해,
+이야기가 끝난 이후에는 이야기에 대한 문제가 제시됩니다.
+문제들은 이야기에서 언급되었던 세부사항이나, 
+이야기의 내용에 대해서 질문하며, 4지선다형입니다.
+정답으로 생각하는 선지에 대한 번호 키를 눌러 답변하시면 됩니다.
+문제 푸실 때, 따로 시간 제한은 없으니 편하게 풀어주시면 됩니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 눌러 다음 페이지로 넘겨주세요.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">제시되는 문제 중에는 집중하지 않은 이야기에 대한 문제도 있습니다.
+집중하지 않은 이야기에 대한 문제는 정답률 산출 과정에 포함되지 않으니,
+이 경우 편하게 문제를 풀어주시면 됩니다.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스페이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>를 눌러 다음 페이지로 넘겨주세요.</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +2185,29 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -213,12 +2234,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,18 +2535,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="43.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.296875" customWidth="1"/>
-    <col min="4" max="4" width="22.3984375" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="18.296875" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="2" max="2" width="36.3984375" customWidth="1"/>
+    <col min="3" max="3" width="28.69921875" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="6" max="6" width="25.19921875" customWidth="1"/>
+    <col min="7" max="7" width="26.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -521,154 +2554,184 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="313.2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="400.2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="400.2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="243.6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:8" ht="313.2" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:8" ht="226.2" x14ac:dyDescent="0.4">
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:8" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Python/Comments.xlsx
+++ b/Python/Comments.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\hy-kist\OpenBCI\AAD\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeJiWon\Desktop\OpenBCI\AAD\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -274,16 +274,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">각 세션 별로 주의를 기울여야 하는 방향이 다릅니다.
-세션 5에서는 이야기가 제시되는 방향이 도중에 바뀝니다.
-즉, 특정 시점 이후로 왼쪽에서 제시되던 이야기는 오른쪽에서,
- 오른쪽에서 제시되던 이야기는 왼쪽에서 제시됩니다.
-이야기가 제시되는 방향이 바뀌더라도 참여자분께서는 
-기존에 듣던 이야기와 같은 이야기에 계속 집중해주시면 됩니다.
-각 세션에 대한 설명은 각 세션이 시작하기 전 다시 한 번 제공됩니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>참여자분께서 실제로 이야기에 잘 집중하셨는지 파악하기 위해,
 이야기가 끝난 이후에는 이야기에 대한 문제가 제시됩니다.
 문제들은 이야기에서 언급되었던 세부사항이나, 
@@ -352,16 +342,26 @@
   </si>
   <si>
     <t xml:space="preserve">각 세션 별로 주의를 기울여야 하는 방향이 다릅니다.
-세션 1에서는 "왼쪽"으로 제시되는 이야기에 집중하셔야 합니다.
-세션 2에서는 "오른쪽"으로 제시되는 이야기에 집중하셔야 합니다.
+'세션 1' 에서는 "왼쪽"으로 제시되는 이야기에 집중하셔야 합니다.
+'세션 2' 에서는 "오른쪽"으로 제시되는 이야기에 집중하셔야 합니다.
 각 세션에 대한 설명은 각 세션이 시작하기 전 다시 한 번 제공됩니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">각 세션 별로 주의를 기울여야 하는 방향이 다릅니다.
+'세션 5' 에서는 이야기가 제시되는 방향이 도중에 바뀝니다.
+즉, 특정 시점 이후로 왼쪽에서 제시되던 이야기는 오른쪽에서,
+ 오른쪽에서 제시되던 이야기는 왼쪽에서 제시됩니다.
+이야기가 제시되는 방향이 바뀌더라도 참여자분께서는 
+기존에 듣던 이야기와 같은 이야기에 계속 집중해주시면 됩니다.
+각 세션에 대한 설명은 각 세션이 시작하기 전 다시 한 번 제공됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> 각 세션 별로 주의를 기울여야 하는 방향이 다릅니다.
-세션 3에서는 3번 "왼쪽"으로 제시되는 이야기에 집중한 이후,
-3번 "오른쪽으로 제시되는 이야기에 집중하셔야 합니다. 
-세션 4에서는 각 이야기 쌍 별로 집중해야 햐는 방향이 "무작위"로 바뀝니다.
+'세션 3' 에서는 3번 "왼쪽"으로 제시되는 이야기에 집중한 이후,
+3번 "오른쪽"으로 제시되는 이야기에 집중하셔야 합니다. 
+'세션 4' 에서는 각 이야기 쌍 별로 집중해야 햐는 방향이 "무작위"로 바뀝니다.
 각 세션에 대한 설명은 각 세션이 시작하기 전 다시 한 번 제공됩니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -725,7 +725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -776,16 +776,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="261" x14ac:dyDescent="0.4">
@@ -842,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
@@ -852,7 +852,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="243.6" x14ac:dyDescent="0.4">
@@ -871,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -902,7 +902,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>29</v>
@@ -913,17 +913,17 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="174" x14ac:dyDescent="0.4">
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Comments.xlsx
+++ b/Python/Comments.xlsx
@@ -283,13 +283,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이제 실험에 대한 설명이 끝났습니다.
-준비가 되시면, '스페이스 바' 를 눌러 다음으로 진행하시면 됩니다.
-혹시나 실험 과정에 대해서 이해가 되지 않는 부분이 있거나,
-궁금한 사항이 있으시면 담당자에게 설명을 요청하시기 바랍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세션 1
 세션 1에서 참여자께서는 "왼쪽"으로 제시되는 이야기에 집중하여야 합니다.
 오른쪽으로 제시되는 이야기는 무시하시면 됩니다.
@@ -310,12 +303,6 @@
     <t>세션 1이 끝났습니다.
 쉬는 시간입니다.
 충분히 휴식을 취한 뒤, '스페이스 바' 를 눌러 다음으로 진행해주세요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세션 4가 끝났습니다.
-쉬는 시간입니다.
-충분히 휴식을 취한 뒤, 를 눌러 다음으로 진행해주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -363,6 +350,19 @@
 3번 "오른쪽"으로 제시되는 이야기에 집중하셔야 합니다. 
 '세션 4' 에서는 각 이야기 쌍 별로 집중해야 햐는 방향이 "무작위"로 바뀝니다.
 각 세션에 대한 설명은 각 세션이 시작하기 전 다시 한 번 제공됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 실험에 대한 설명이 끝났습니다.
+준비가 되시면, '스페이스 바' 를 눌러 다음으로 진행하시면 됩니다.
+혹시나 실험 과정에 대해서 이해가 되지 않는 부분이 있거나,
+궁금한 사항이 있으시면 담당자에게 설명을 요청하시기 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 4가 끝났습니다.
+쉬는 시간입니다.
+충분히 휴식을 취한 뒤, '스페이스 바' 를 눌러 다음으로 진행해주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -776,16 +776,16 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="261" x14ac:dyDescent="0.4">
@@ -842,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
@@ -852,7 +852,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="243.6" x14ac:dyDescent="0.4">
@@ -860,7 +860,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>26</v>
@@ -874,7 +874,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>27</v>
@@ -902,7 +902,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>29</v>
@@ -913,17 +913,17 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="174" x14ac:dyDescent="0.4">
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Comments.xlsx
+++ b/Python/Comments.xlsx
@@ -84,26 +84,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>두 가지 신호를 통해 주의를 기울여야 할 방향을 확인하실 수 있습니다.
-양쪽 귀에 서로 다른 이야기가 제시되기 전,
-주의를 기울여햐 하는 방향에 '삐- 삐-'하는 신호음이 들릴 것입니다.
-동시에 화면에는 주의를 기울여야 하는 방향이 화살표로 표시될 것입니다.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>연습 시행이 끝났습니다.
 아직 실험 과정이 이해되지 않으신다면 담당자에게 설명을 요청해주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +344,13 @@
 쉬는 시간입니다.
 충분히 휴식을 취한 뒤, '스페이스 바' 를 눌러 다음으로 진행해주세요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 가지 신호를 통해 주의를 기울여야 할 방향을 확인하실 수 있습니다.
+양쪽 귀에 서로 다른 이야기가 제시되기 전,
+주의를 기울여야 하는 방향에 '삐- 삐-'하는 신호음이 들릴 것입니다.
+동시에 화면에는 주의를 기울여야 하는 방향이 화살표로 표시될 것입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -725,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -737,6 +724,7 @@
     <col min="5" max="5" width="31.5" customWidth="1"/>
     <col min="6" max="6" width="25.19921875" customWidth="1"/>
     <col min="7" max="7" width="26.296875" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
@@ -773,19 +761,19 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="261" x14ac:dyDescent="0.4">
@@ -796,19 +784,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="348" x14ac:dyDescent="0.4">
@@ -816,22 +804,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="365.4" x14ac:dyDescent="0.4">
@@ -839,31 +827,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="243.6" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.4">
@@ -871,13 +859,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="208.8" x14ac:dyDescent="0.4">
@@ -885,13 +873,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="174" x14ac:dyDescent="0.4">
@@ -899,13 +887,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="261" x14ac:dyDescent="0.4">
@@ -913,17 +901,17 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="174" x14ac:dyDescent="0.4">
       <c r="C11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
